--- a/AL20v1_2024-04-11/Serial monitor baud 1200.xlsx
+++ b/AL20v1_2024-04-11/Serial monitor baud 1200.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smartin/Documents/MATLAB/GitHub/windtunnel/AL20v1_2024-04-11/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8513D520-64B0-D943-A908-7923C24433C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C70A627-FE3B-444D-9DD7-88384F54D34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16400" activeTab="1" xr2:uid="{E4DFE16F-8216-2D4C-A078-68E6522CB87D}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="37960" windowHeight="19320" activeTab="1" xr2:uid="{E4DFE16F-8216-2D4C-A078-68E6522CB87D}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
     <sheet name="Formatted" sheetId="2" r:id="rId2"/>
     <sheet name="WT shutdown" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Formatted!$F$36:$F$115</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Formatted!$H$35</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Formatted!$H$36:$H$115</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Formatted!$K$36:$K$115</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Formatted!$M$35</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Formatted!$M$36:$M$115</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Formatted!$F$36:$F$115</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Formatted!$H$35</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Formatted!$H$36:$H$115</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,8 +48,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5359" uniqueCount="5353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5368" uniqueCount="5358">
   <si>
     <t>17:50:36.479 -&gt; 2.35</t>
   </si>
@@ -16097,12 +16130,31 @@
   </si>
   <si>
     <t>Std. dev.</t>
+  </si>
+  <si>
+    <t>Seconds</t>
+  </si>
+  <si>
+    <t>Delta t</t>
+  </si>
+  <si>
+    <t>Diff from true mean, first data point is within 0.01V of mean</t>
+  </si>
+  <si>
+    <t>Diff from true mean, first data point is &gt;0.05V above mean</t>
+  </si>
+  <si>
+    <t>Number of time steps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -16132,9 +16184,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -29742,6 +29796,1681 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Formatted!$H$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diff from true mean, first data point is within 0.01V of mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Formatted!$F$36:$F$115</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>0.27600000000654767</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49400000000073696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76600000000246316</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0060000000039862</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.253000000009151</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4950000000034924</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7780000000040894</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0230000000068431</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2739999999976446</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5210000000028097</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.772000000003203</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0200000000047771</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2690000000027606</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5120000000031033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.7589999999986756</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0030000000050201</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2760000000031564</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5130000000058583</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7630000000002513</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0060000000005944</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2519999999997573</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.5230000000050739</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.7649999999994161</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0060000000069405</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.2560000000013325</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5239999999982379</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.7740000000022222</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.025000000002616</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2719999999981884</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.5210000000057633</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7650000000025159</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0060000000004479</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.2530000000056134</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.5240000000013367</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.7690000000040911</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.0160000000092548</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.258000000003598</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.5140000000052218</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.7550000000031538</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.006999999999959</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.274000000000454</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.518000000006797</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.75700000000232</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11.005000000003895</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.251999999999466</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.506999999995088</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11.753000000003844</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12.03600000000444</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12.283000000000014</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.521999999995534</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12.77900000000316</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13.020999999997503</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13.264000000007437</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13.516000000004242</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13.762000000003402</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>14.006999999996566</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14.275999999999472</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14.526000000003457</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14.772999999999028</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>15.014000000006554</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15.256999999997303</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>15.507000000001289</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>15.75699999999568</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>16.03500000000464</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16.274000000000161</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>16.521000000005326</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16.773000000002128</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>17.02300000000611</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>17.267000000002866</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>17.510999999999619</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>17.756999999998779</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>18.005000000000354</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>18.25600000000075</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>18.535000000006118</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>18.774000000001639</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>19.017000000001982</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>19.262000000004733</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>19.512999999995536</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>19.75799999999829</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>20.008000000002276</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Formatted!$H$36:$H$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>-1.1672694394269101E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9832730560572998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3499397227239704E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8327305605728732E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.9672694394270458E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.8339361060935069E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.5958408679984686E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.4172694394267715E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6606389390627641E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6327305605732256E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7418214696638401E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.3393610609389057E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.3499791342014333E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2613019891447586E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.4339361060931033E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.6672694394261889E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.420965854691314E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1660638939070544E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.2516417626826666E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.1672694394260219E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.4529837251400224E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.8945421666978213E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.1672694394253575E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.5006027727586542E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.8872694394258538E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-9.3650020865609918E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.783805505361947E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.3273056057464601E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.0169607781609429E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.9939722724090529E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.1014991541276089E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.2730560573729406E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-3.7939065154768414E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.1508350174998014E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.6898734177162034E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.7771750050177282E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.8057035335465876E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.885362139521618E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5506792785227042E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.3273056057399089E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-4.8434261015772861E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-7.3869801085457709E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-7.4866478826329796E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.4399967121536683E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-9.4504721720367613E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.3707838666032757E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.6464545419079286E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.1063893907899995E-5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-6.7747352105884673E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-9.2726943942578188E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-6.9668120413135526E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-5.1342328557879569E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-6.0123170357551103E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-9.4504721720145568E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.0218148939684646E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.2029837251366082E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1.4830589131058503E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-2.5465797842501026E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-3.0655745241685572E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-2.1006027727565879E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.4295645213904251E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1.0382371813588698E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-7.5457102672471521E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-4.4851943942303407E-4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-9.0346362499715838E-5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.4548742395259495E-5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.163126501295686E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.9743644293019926E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.2385276620263674E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7184448462912449E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.6214629549438087E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.2216194494665267E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.409497386590246E-4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.7327110111773365E-4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.2606389391087731E-4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.2746740268270216E-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.1065263849987588E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.5837158621915322E-4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.5551537070485111E-4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.5773056057820654E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F1AA-BF4D-B911-45141BB7FC48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1809208495"/>
+        <c:axId val="1801205535"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1809208495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Seconds of averaging</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1801205535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1801205535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1809208495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Formatted!$M$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diff from true mean, first data point is &gt;0.05V above mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Formatted!$K$36:$K$115</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>0.24199999999434155</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51699999999488766</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76299999999405088</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0060000000039862</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2520000000031493</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4930000000010817</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7449999999978847</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9959999999982787</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2449999999962618</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4949999999906538</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7419999999958189</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0199999999951848</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2690000000027606</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5139999999959217</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.751999999995034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.991000000000148</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2740000000007443</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5179999999974978</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7620000000038418</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0009999999993635</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2739999999974989</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.5179999999942515</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.7679999999982359</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0009999999961172</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.2489999999976913</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.496999999989673</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.7489999999960686</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.0289999999978452</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2729999999945969</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.5179999999973512</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7649999999929236</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0009999999896255</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.2459999999923781</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.5270000000001573</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.7689999999944988</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.0210000000008943</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.2659999999940563</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.5179999999908578</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.7519999999947427</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.026999999995288</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.266999999996811</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.517000000000797</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.758999999995137</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11.014999999996762</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.265000000000747</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.510999999999909</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11.754000000000252</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11.999999999999416</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12.251999999996219</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.531999999997996</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12.773999999992338</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13.022999999999913</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13.268999999999076</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13.518999999993468</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13.752000000000942</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>14.001999999995334</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14.247999999994498</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14.525999999993862</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14.766999999991796</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>15.015999999989781</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15.263999999991354</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>15.512999999998929</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>15.75199999999445</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>16.028999999997406</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16.279999999997802</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>16.529999999992192</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16.772999999992535</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>17.02199999999052</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>17.263999999994454</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>17.512999999992438</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>17.762999999996421</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>18.004999999990762</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>18.251999999995927</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>18.525999999990471</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>18.771999999989635</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>19.023999999996033</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>19.266999999996376</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>19.516999999990766</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>19.756999999992289</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>20.031999999992834</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Formatted!$M$36:$M$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>3.4832730560573122E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.2581785303359432E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.51672694394267E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.5167269439427145E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.1705730977888074E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.4575920200713455E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.7783805505378076E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.5087328540608347E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.0368346568179199E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.2064851257018745E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.4886980108558276E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-9.0497435745939825E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.8036330757900139E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.8996638056234545E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.9884838679450354E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.7591141473501963E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.0277345557051518E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.8595771317334595E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.0839361060923665E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.4841011225936747E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4.7899109488596103E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-5.0771793493349371E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.270717715287752E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.1920628278553345E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.4371107092663316E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.0543737835643228E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-9.3740027660160763E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4.8641837559593171E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-4.4124204216533514E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-8.6263367783701028E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.3211155932726371E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.3621353880566289E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.1706790997081455E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0315609699302897E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0827305605740634E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.186321720795469E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.5423593691791311E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.5976633872316626E-5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.2386980108543E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.4856773996250183E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.4779490510763438E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-2.1814874489045621E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.648750920907549E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-5.0663595526367899E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2.5576501464730228E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-5.7852485068066173E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.3113372360367137E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.557310933201439E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.305480821538918E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.1035244195047866E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.1828944394243202E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1.5274226961285997E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-1.5958408679943581E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1.7724354910830797E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-2.0513274104363433E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-3.1387996885325897E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-3.6637729359259019E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-2.6586783741309183E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-1.9578099799635318E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1.5460069809511978E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.2457008119719504E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-9.2289644906928814E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-5.4701627486597459E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-4.3206694721087402E-4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-3.2064367255113524E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.8016258474684577E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.4463532248202355E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.3429944901957036E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.2489155316757206E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.4412657197363572E-4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.5407887518369421E-4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-1.4914868785353974E-5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-5.7979821936005038E-5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.5833702958054658E-4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.5081566696069117E-4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.0202189916070949E-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.9905180410194632E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-1.0333082049562847E-4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-6.4706741922027078E-4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-9.7774325488320102E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-143C-1F44-918D-5B9A8D2A4E2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1796517807"/>
+        <c:axId val="1874661871"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1796517807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Seconds of averaging</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1874661871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1874661871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1796517807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5.0000000000000001E-3"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -35581,6 +37310,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -36652,6 +38461,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -36687,6 +39528,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D9E685F-A444-D260-4605-5783BF2D314F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59F61E49-5B0F-B0F3-5C50-DB660A81BCDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -48131,15 +51044,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3906BA-D2A0-B643-A12A-0F71B9EDBF2E}">
-  <dimension ref="A1:D2213"/>
+  <dimension ref="A1:M2213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="V83" sqref="V83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -48412,7 +51327,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>2241</v>
       </c>
@@ -48420,7 +51335,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>2242</v>
       </c>
@@ -48428,663 +51343,3494 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>2243</v>
       </c>
       <c r="B35">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>5357</v>
+      </c>
+      <c r="E35" t="s">
+        <v>5354</v>
+      </c>
+      <c r="F35" t="s">
+        <v>5353</v>
+      </c>
+      <c r="G35" t="s">
+        <v>5351</v>
+      </c>
+      <c r="H35" t="s">
+        <v>5355</v>
+      </c>
+      <c r="J35" t="s">
+        <v>5354</v>
+      </c>
+      <c r="K35" t="s">
+        <v>5353</v>
+      </c>
+      <c r="L35" t="s">
+        <v>5351</v>
+      </c>
+      <c r="M35" t="s">
+        <v>5356</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>2244</v>
       </c>
       <c r="B36">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36" s="1" cm="1">
+        <f t="array" aca="1" ref="E36" ca="1">INDIRECT("A"&amp;(D36+2))-A$2</f>
+        <v>3.1944444445208831E-6</v>
+      </c>
+      <c r="F36" s="2">
+        <f ca="1">E36*10.007/0.000115821759259283</f>
+        <v>0.27600000000654767</v>
+      </c>
+      <c r="G36">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D36+1)))</f>
+        <v>2.3439999999999999</v>
+      </c>
+      <c r="H36">
+        <f ca="1">G36-$D$2</f>
+        <v>-1.1672694394269101E-3</v>
+      </c>
+      <c r="J36" s="1" cm="1">
+        <f t="array" aca="1" ref="J36" ca="1">INDIRECT("A"&amp;(D36+11))-A$11</f>
+        <v>2.8009259258610086E-6</v>
+      </c>
+      <c r="K36" s="2">
+        <f ca="1">J36*10.007/0.000115821759259283</f>
+        <v>0.24199999999434155</v>
+      </c>
+      <c r="L36">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D36+11)))</f>
+        <v>2.38</v>
+      </c>
+      <c r="M36">
+        <f ca="1">L36-$D$2</f>
+        <v>3.4832730560573122E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>2245</v>
       </c>
       <c r="B37">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37" s="1" cm="1">
+        <f t="array" aca="1" ref="E37" ca="1">INDIRECT("A"&amp;(D37+2))-A$2</f>
+        <v>5.7175925926022941E-6</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" ref="F37:F100" ca="1" si="0">E37*10.007/0.000115821759259283</f>
+        <v>0.49400000000073696</v>
+      </c>
+      <c r="G37">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D37+1)))</f>
+        <v>2.3649999999999998</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ref="H37:H115" ca="1" si="1">G37-$D$2</f>
+        <v>1.9832730560572998E-2</v>
+      </c>
+      <c r="J37" s="1" cm="1">
+        <f t="array" aca="1" ref="J37" ca="1">INDIRECT("A"&amp;(D37+11))-A$11</f>
+        <v>5.9837962962383529E-6</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" ref="K37:K100" ca="1" si="2">J37*10.007/0.000115821759259283</f>
+        <v>0.51699999999488766</v>
+      </c>
+      <c r="L37">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D37+11)))</f>
+        <v>2.3409090909090908</v>
+      </c>
+      <c r="M37">
+        <f t="shared" ref="M37:M100" ca="1" si="3">L37-$D$2</f>
+        <v>-4.2581785303359432E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>2246</v>
       </c>
       <c r="B38">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>15</v>
+      </c>
+      <c r="E38" s="1" cm="1">
+        <f t="array" aca="1" ref="E38" ca="1">INDIRECT("A"&amp;(D38+2))-A$2</f>
+        <v>8.8657407407710664E-6</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.76600000000246316</v>
+      </c>
+      <c r="G38">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D38+1)))</f>
+        <v>2.3686666666666665</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.3499397227239704E-2</v>
+      </c>
+      <c r="J38" s="1" cm="1">
+        <f t="array" aca="1" ref="J38" ca="1">INDIRECT("A"&amp;(D38+11))-A$11</f>
+        <v>8.8310185184514722E-6</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.76299999999405088</v>
+      </c>
+      <c r="L38">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D38+11)))</f>
+        <v>2.33</v>
+      </c>
+      <c r="M38">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.51672694394267E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>2247</v>
       </c>
       <c r="B39">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>20</v>
+      </c>
+      <c r="E39" s="1" cm="1">
+        <f t="array" aca="1" ref="E39" ca="1">INDIRECT("A"&amp;(D39+2))-A$2</f>
+        <v>1.1643518518567042E-5</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0060000000039862</v>
+      </c>
+      <c r="G39">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D39+1)))</f>
+        <v>2.3499999999999996</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.8327305605728732E-3</v>
+      </c>
+      <c r="J39" s="1" cm="1">
+        <f t="array" aca="1" ref="J39" ca="1">INDIRECT("A"&amp;(D39+11))-A$11</f>
+        <v>1.1643518518567042E-5</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0060000000039862</v>
+      </c>
+      <c r="L39">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D39+11)))</f>
+        <v>2.3299999999999996</v>
+      </c>
+      <c r="M39">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.5167269439427145E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>2248</v>
       </c>
       <c r="B40">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>25</v>
+      </c>
+      <c r="E40" s="1" cm="1">
+        <f t="array" aca="1" ref="E40" ca="1">INDIRECT("A"&amp;(D40+2))-A$2</f>
+        <v>1.45023148149237E-5</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.253000000009151</v>
+      </c>
+      <c r="G40">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D40+1)))</f>
+        <v>2.3411999999999997</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ca="1" si="1"/>
+        <v>-3.9672694394270458E-3</v>
+      </c>
+      <c r="J40" s="1" cm="1">
+        <f t="array" aca="1" ref="J40" ca="1">INDIRECT("A"&amp;(D40+11))-A$11</f>
+        <v>1.4490740740780161E-5</v>
+      </c>
+      <c r="K40" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2520000000031493</v>
+      </c>
+      <c r="L40">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D40+11)))</f>
+        <v>2.3334615384615387</v>
+      </c>
+      <c r="M40">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.1705730977888074E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>2249</v>
       </c>
       <c r="B41">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>30</v>
+      </c>
+      <c r="E41" s="1" cm="1">
+        <f t="array" aca="1" ref="E41" ca="1">INDIRECT("A"&amp;(D41+2))-A$2</f>
+        <v>1.7303240740784709E-5</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4950000000034924</v>
+      </c>
+      <c r="G41">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D41+1)))</f>
+        <v>2.3393333333333333</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ca="1" si="1"/>
+        <v>-5.8339361060935069E-3</v>
+      </c>
+      <c r="J41" s="1" cm="1">
+        <f t="array" aca="1" ref="J41" ca="1">INDIRECT("A"&amp;(D41+11))-A$11</f>
+        <v>1.7280092592608653E-5</v>
+      </c>
+      <c r="K41" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.4930000000010817</v>
+      </c>
+      <c r="L41">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D41+11)))</f>
+        <v>2.3387096774193554</v>
+      </c>
+      <c r="M41">
+        <f t="shared" ca="1" si="3"/>
+        <v>-6.4575920200713455E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>2250</v>
       </c>
       <c r="B42">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <v>35</v>
+      </c>
+      <c r="E42" s="1" cm="1">
+        <f t="array" aca="1" ref="E42" ca="1">INDIRECT("A"&amp;(D42+2))-A$2</f>
+        <v>2.0578703703755252E-5</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.7780000000040894</v>
+      </c>
+      <c r="G42">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D42+1)))</f>
+        <v>2.3405714285714283</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ca="1" si="1"/>
+        <v>-4.5958408679984686E-3</v>
+      </c>
+      <c r="J42" s="1" cm="1">
+        <f t="array" aca="1" ref="J42" ca="1">INDIRECT("A"&amp;(D42+11))-A$11</f>
+        <v>2.0196759259238917E-5</v>
+      </c>
+      <c r="K42" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.7449999999978847</v>
+      </c>
+      <c r="L42">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D42+11)))</f>
+        <v>2.341388888888889</v>
+      </c>
+      <c r="M42">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3.7783805505378076E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>2251</v>
       </c>
       <c r="B43">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <v>40</v>
+      </c>
+      <c r="E43" s="1" cm="1">
+        <f t="array" aca="1" ref="E43" ca="1">INDIRECT("A"&amp;(D43+2))-A$2</f>
+        <v>2.3414351851935855E-5</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.0230000000068431</v>
+      </c>
+      <c r="G43">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D43+1)))</f>
+        <v>2.34375</v>
+      </c>
+      <c r="H43">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.4172694394267715E-3</v>
+      </c>
+      <c r="J43" s="1" cm="1">
+        <f t="array" aca="1" ref="J43" ca="1">INDIRECT("A"&amp;(D43+11))-A$11</f>
+        <v>2.3101851851836663E-5</v>
+      </c>
+      <c r="K43" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.9959999999982787</v>
+      </c>
+      <c r="L43">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D43+11)))</f>
+        <v>2.3436585365853659</v>
+      </c>
+      <c r="M43">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.5087328540608347E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>2252</v>
       </c>
       <c r="B44">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <v>45</v>
+      </c>
+      <c r="E44" s="1" cm="1">
+        <f t="array" aca="1" ref="E44" ca="1">INDIRECT("A"&amp;(D44+2))-A$2</f>
+        <v>2.6319444444422579E-5</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2739999999976446</v>
+      </c>
+      <c r="G44">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D44+1)))</f>
+        <v>2.345333333333333</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.6606389390627641E-4</v>
+      </c>
+      <c r="J44" s="1" cm="1">
+        <f t="array" aca="1" ref="J44" ca="1">INDIRECT("A"&amp;(D44+11))-A$11</f>
+        <v>2.5983796296258355E-5</v>
+      </c>
+      <c r="K44" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.2449999999962618</v>
+      </c>
+      <c r="L44">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D44+11)))</f>
+        <v>2.3441304347826089</v>
+      </c>
+      <c r="M44">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.0368346568179199E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>2253</v>
       </c>
       <c r="B45">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>50</v>
+      </c>
+      <c r="E45" s="1" cm="1">
+        <f t="array" aca="1" ref="E45" ca="1">INDIRECT("A"&amp;(D45+2))-A$2</f>
+        <v>2.9178240740779238E-5</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.5210000000028097</v>
+      </c>
+      <c r="G45">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D45+1)))</f>
+        <v>2.3468</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.6327305605732256E-3</v>
+      </c>
+      <c r="J45" s="1" cm="1">
+        <f t="array" aca="1" ref="J45" ca="1">INDIRECT("A"&amp;(D45+11))-A$11</f>
+        <v>2.8877314814712562E-5</v>
+      </c>
+      <c r="K45" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.4949999999906538</v>
+      </c>
+      <c r="L45">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D45+11)))</f>
+        <v>2.3419607843137249</v>
+      </c>
+      <c r="M45">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3.2064851257018745E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>2254</v>
       </c>
       <c r="B46">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <v>55</v>
+      </c>
+      <c r="E46" s="1" cm="1">
+        <f t="array" aca="1" ref="E46" ca="1">INDIRECT("A"&amp;(D46+2))-A$2</f>
+        <v>3.2083333333376984E-5</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.772000000003203</v>
+      </c>
+      <c r="G46">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D46+1)))</f>
+        <v>2.3469090909090906</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.7418214696638401E-3</v>
+      </c>
+      <c r="J46" s="1" cm="1">
+        <f t="array" aca="1" ref="J46" ca="1">INDIRECT("A"&amp;(D46+11))-A$11</f>
+        <v>3.1736111111069221E-5</v>
+      </c>
+      <c r="K46" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.7419999999958189</v>
+      </c>
+      <c r="L46">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D46+11)))</f>
+        <v>2.3426785714285709</v>
+      </c>
+      <c r="M46">
+        <f t="shared" ca="1" si="3"/>
+        <v>-2.4886980108558276E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>2255</v>
       </c>
       <c r="B47">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>60</v>
+      </c>
+      <c r="E47" s="1" cm="1">
+        <f t="array" aca="1" ref="E47" ca="1">INDIRECT("A"&amp;(D47+2))-A$2</f>
+        <v>3.4953703703766159E-5</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.0200000000047771</v>
+      </c>
+      <c r="G47">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D47+1)))</f>
+        <v>2.3448333333333329</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ca="1" si="1"/>
+        <v>-3.3393610609389057E-4</v>
+      </c>
+      <c r="J47" s="1" cm="1">
+        <f t="array" aca="1" ref="J47" ca="1">INDIRECT("A"&amp;(D47+11))-A$11</f>
+        <v>3.4953703703655137E-5</v>
+      </c>
+      <c r="K47" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.0199999999951848</v>
+      </c>
+      <c r="L47">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D47+11)))</f>
+        <v>2.3442622950819674</v>
+      </c>
+      <c r="M47">
+        <f t="shared" ca="1" si="3"/>
+        <v>-9.0497435745939825E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>2256</v>
       </c>
       <c r="B48">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>65</v>
+      </c>
+      <c r="E48" s="1" cm="1">
+        <f t="array" aca="1" ref="E48" ca="1">INDIRECT("A"&amp;(D48+2))-A$2</f>
+        <v>3.783564814818785E-5</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.2690000000027606</v>
+      </c>
+      <c r="G48">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D48+1)))</f>
+        <v>2.3452307692307688</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.3499791342014333E-5</v>
+      </c>
+      <c r="J48" s="1" cm="1">
+        <f t="array" aca="1" ref="J48" ca="1">INDIRECT("A"&amp;(D48+11))-A$11</f>
+        <v>3.783564814818785E-5</v>
+      </c>
+      <c r="K48" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.2690000000027606</v>
+      </c>
+      <c r="L48">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D48+11)))</f>
+        <v>2.3413636363636368</v>
+      </c>
+      <c r="M48">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3.8036330757900139E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>2257</v>
       </c>
       <c r="B49">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <v>70</v>
+      </c>
+      <c r="E49" s="1" cm="1">
+        <f t="array" aca="1" ref="E49" ca="1">INDIRECT("A"&amp;(D49+2))-A$2</f>
+        <v>4.0648148148192398E-5</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.5120000000031033</v>
+      </c>
+      <c r="G49">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D49+1)))</f>
+        <v>2.3464285714285715</v>
+      </c>
+      <c r="H49">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.2613019891447586E-3</v>
+      </c>
+      <c r="J49" s="1" cm="1">
+        <f t="array" aca="1" ref="J49" ca="1">INDIRECT("A"&amp;(D49+11))-A$11</f>
+        <v>4.0671296296257431E-5</v>
+      </c>
+      <c r="K49" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.5139999999959217</v>
+      </c>
+      <c r="L49">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D49+11)))</f>
+        <v>2.3412676056338033</v>
+      </c>
+      <c r="M49">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3.8996638056234545E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>2258</v>
       </c>
       <c r="B50">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>75</v>
+      </c>
+      <c r="E50" s="1" cm="1">
+        <f t="array" aca="1" ref="E50" ca="1">INDIRECT("A"&amp;(D50+2))-A$2</f>
+        <v>4.3506944444438034E-5</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.7589999999986756</v>
+      </c>
+      <c r="G50">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D50+1)))</f>
+        <v>2.3437333333333337</v>
+      </c>
+      <c r="H50">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.4339361060931033E-3</v>
+      </c>
+      <c r="J50" s="1" cm="1">
+        <f t="array" aca="1" ref="J50" ca="1">INDIRECT("A"&amp;(D50+11))-A$11</f>
+        <v>4.3425925925877351E-5</v>
+      </c>
+      <c r="K50" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.751999999995034</v>
+      </c>
+      <c r="L50">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D50+11)))</f>
+        <v>2.3448684210526323</v>
+      </c>
+      <c r="M50">
+        <f t="shared" ca="1" si="3"/>
+        <v>-2.9884838679450354E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>2259</v>
       </c>
       <c r="B51">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>80</v>
+      </c>
+      <c r="E51" s="1" cm="1">
+        <f t="array" aca="1" ref="E51" ca="1">INDIRECT("A"&amp;(D51+2))-A$2</f>
+        <v>4.633101851858612E-5</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.0030000000050201</v>
+      </c>
+      <c r="G51">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D51+1)))</f>
+        <v>2.3435000000000006</v>
+      </c>
+      <c r="H51">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.6672694394261889E-3</v>
+      </c>
+      <c r="J51" s="1" cm="1">
+        <f t="array" aca="1" ref="J51" ca="1">INDIRECT("A"&amp;(D51+11))-A$11</f>
+        <v>4.619212962964081E-5</v>
+      </c>
+      <c r="K51" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.991000000000148</v>
+      </c>
+      <c r="L51">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D51+11)))</f>
+        <v>2.3446913580246918</v>
+      </c>
+      <c r="M51">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4.7591141473501963E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>2260</v>
       </c>
       <c r="B52">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>85</v>
+      </c>
+      <c r="E52" s="1" cm="1">
+        <f t="array" aca="1" ref="E52" ca="1">INDIRECT("A"&amp;(D52+2))-A$2</f>
+        <v>4.9490740740787409E-5</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.2760000000031564</v>
+      </c>
+      <c r="G52">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D52+1)))</f>
+        <v>2.3465882352941181</v>
+      </c>
+      <c r="H52">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.420965854691314E-3</v>
+      </c>
+      <c r="J52" s="1" cm="1">
+        <f t="array" aca="1" ref="J52" ca="1">INDIRECT("A"&amp;(D52+11))-A$11</f>
+        <v>4.9467592592611354E-5</v>
+      </c>
+      <c r="K52" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.2740000000007443</v>
+      </c>
+      <c r="L52">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D52+11)))</f>
+        <v>2.3431395348837216</v>
+      </c>
+      <c r="M52">
+        <f t="shared" ca="1" si="3"/>
+        <v>-2.0277345557051518E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>2261</v>
       </c>
       <c r="B53">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>90</v>
+      </c>
+      <c r="E53" s="1" cm="1">
+        <f t="array" aca="1" ref="E53" ca="1">INDIRECT("A"&amp;(D53+2))-A$2</f>
+        <v>5.2233796296374813E-5</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.5130000000058583</v>
+      </c>
+      <c r="G53">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D53+1)))</f>
+        <v>2.3463333333333338</v>
+      </c>
+      <c r="H53">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.1660638939070544E-3</v>
+      </c>
+      <c r="J53" s="1" cm="1">
+        <f t="array" aca="1" ref="J53" ca="1">INDIRECT("A"&amp;(D53+11))-A$11</f>
+        <v>5.2291666666648418E-5</v>
+      </c>
+      <c r="K53" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.5179999999974978</v>
+      </c>
+      <c r="L53">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D53+11)))</f>
+        <v>2.3423076923076933</v>
+      </c>
+      <c r="M53">
+        <f t="shared" ca="1" si="3"/>
+        <v>-2.8595771317334595E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>2262</v>
       </c>
       <c r="B54">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <v>95</v>
+      </c>
+      <c r="E54" s="1" cm="1">
+        <f t="array" aca="1" ref="E54" ca="1">INDIRECT("A"&amp;(D54+2))-A$2</f>
+        <v>5.512731481482902E-5</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.7630000000002513</v>
+      </c>
+      <c r="G54">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D54+1)))</f>
+        <v>2.3448421052631585</v>
+      </c>
+      <c r="H54">
+        <f t="shared" ca="1" si="1"/>
+        <v>-3.2516417626826666E-4</v>
+      </c>
+      <c r="J54" s="1" cm="1">
+        <f t="array" aca="1" ref="J54" ca="1">INDIRECT("A"&amp;(D54+11))-A$11</f>
+        <v>5.5115740740796504E-5</v>
+      </c>
+      <c r="K54" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.7620000000038418</v>
+      </c>
+      <c r="L54">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D54+11)))</f>
+        <v>2.3420833333333344</v>
+      </c>
+      <c r="M54">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3.0839361060923665E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>2263</v>
       </c>
       <c r="B55">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <v>100</v>
+      </c>
+      <c r="E55" s="1" cm="1">
+        <f t="array" aca="1" ref="E55" ca="1">INDIRECT("A"&amp;(D55+2))-A$2</f>
+        <v>5.7939814814833568E-5</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.0060000000005944</v>
+      </c>
+      <c r="G55">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D55+1)))</f>
+        <v>2.3440000000000007</v>
+      </c>
+      <c r="H55">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.1672694394260219E-3</v>
+      </c>
+      <c r="J55" s="1" cm="1">
+        <f t="array" aca="1" ref="J55" ca="1">INDIRECT("A"&amp;(D55+11))-A$11</f>
+        <v>5.7881944444448941E-5</v>
+      </c>
+      <c r="K55" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.0009999999993635</v>
+      </c>
+      <c r="L55">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D55+11)))</f>
+        <v>2.3416831683168331</v>
+      </c>
+      <c r="M55">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3.4841011225936747E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>2264</v>
       </c>
       <c r="B56">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <v>105</v>
+      </c>
+      <c r="E56" s="1" cm="1">
+        <f t="array" aca="1" ref="E56" ca="1">INDIRECT("A"&amp;(D56+2))-A$2</f>
+        <v>6.0787037037046687E-5</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.2519999999997573</v>
+      </c>
+      <c r="G56">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D56+1)))</f>
+        <v>2.3437142857142867</v>
+      </c>
+      <c r="H56">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.4529837251400224E-3</v>
+      </c>
+      <c r="J56" s="1" cm="1">
+        <f t="array" aca="1" ref="J56" ca="1">INDIRECT("A"&amp;(D56+11))-A$11</f>
+        <v>6.1041666666650229E-5</v>
+      </c>
+      <c r="K56" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.2739999999974989</v>
+      </c>
+      <c r="L56">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D56+11)))</f>
+        <v>2.3403773584905672</v>
+      </c>
+      <c r="M56">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4.7899109488596103E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>2265</v>
       </c>
       <c r="B57">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D57">
+        <v>110</v>
+      </c>
+      <c r="E57" s="1" cm="1">
+        <f t="array" aca="1" ref="E57" ca="1">INDIRECT("A"&amp;(D57+2))-A$2</f>
+        <v>6.3923611111182943E-5</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.5230000000050739</v>
+      </c>
+      <c r="G57">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D57+1)))</f>
+        <v>2.343272727272729</v>
+      </c>
+      <c r="H57">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.8945421666978213E-3</v>
+      </c>
+      <c r="J57" s="1" cm="1">
+        <f t="array" aca="1" ref="J57" ca="1">INDIRECT("A"&amp;(D57+11))-A$11</f>
+        <v>6.3865740740687293E-5</v>
+      </c>
+      <c r="K57" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.5179999999942515</v>
+      </c>
+      <c r="L57">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D57+11)))</f>
+        <v>2.3400900900900918</v>
+      </c>
+      <c r="M57">
+        <f t="shared" ca="1" si="3"/>
+        <v>-5.0771793493349371E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>2266</v>
       </c>
       <c r="B58">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D58">
+        <v>115</v>
+      </c>
+      <c r="E58" s="1" cm="1">
+        <f t="array" aca="1" ref="E58" ca="1">INDIRECT("A"&amp;(D58+2))-A$2</f>
+        <v>6.6724537037043952E-5</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.7649999999994161</v>
+      </c>
+      <c r="G58">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D58+1)))</f>
+        <v>2.3420000000000014</v>
+      </c>
+      <c r="H58">
+        <f t="shared" ca="1" si="1"/>
+        <v>-3.1672694394253575E-3</v>
+      </c>
+      <c r="J58" s="1" cm="1">
+        <f t="array" aca="1" ref="J58" ca="1">INDIRECT("A"&amp;(D58+11))-A$11</f>
+        <v>6.6759259259252524E-5</v>
+      </c>
+      <c r="K58" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.7679999999982359</v>
+      </c>
+      <c r="L58">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D58+11)))</f>
+        <v>2.341896551724139</v>
+      </c>
+      <c r="M58">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3.270717715287752E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>2267</v>
       </c>
       <c r="B59">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D59">
+        <v>120</v>
+      </c>
+      <c r="E59" s="1" cm="1">
+        <f t="array" aca="1" ref="E59" ca="1">INDIRECT("A"&amp;(D59+2))-A$2</f>
+        <v>6.9513888888983466E-5</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.0060000000069405</v>
+      </c>
+      <c r="G59">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D59+1)))</f>
+        <v>2.3416666666666681</v>
+      </c>
+      <c r="H59">
+        <f t="shared" ca="1" si="1"/>
+        <v>-3.5006027727586542E-3</v>
+      </c>
+      <c r="J59" s="1" cm="1">
+        <f t="array" aca="1" ref="J59" ca="1">INDIRECT("A"&amp;(D59+11))-A$11</f>
+        <v>6.9456018518487816E-5</v>
+      </c>
+      <c r="K59" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.0009999999961172</v>
+      </c>
+      <c r="L59">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D59+11)))</f>
+        <v>2.3429752066115714</v>
+      </c>
+      <c r="M59">
+        <f t="shared" ca="1" si="3"/>
+        <v>-2.1920628278553345E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>2268</v>
       </c>
       <c r="B60">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D60">
+        <v>125</v>
+      </c>
+      <c r="E60" s="1" cm="1">
+        <f t="array" aca="1" ref="E60" ca="1">INDIRECT("A"&amp;(D60+2))-A$2</f>
+        <v>7.2407407407437674E-5</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.2560000000013325</v>
+      </c>
+      <c r="G60">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D60+1)))</f>
+        <v>2.3432800000000009</v>
+      </c>
+      <c r="H60">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.8872694394258538E-3</v>
+      </c>
+      <c r="J60" s="1" cm="1">
+        <f t="array" aca="1" ref="J60" ca="1">INDIRECT("A"&amp;(D60+11))-A$11</f>
+        <v>7.2326388888876991E-5</v>
+      </c>
+      <c r="K60" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.2489999999976913</v>
+      </c>
+      <c r="L60">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D60+11)))</f>
+        <v>2.3437301587301604</v>
+      </c>
+      <c r="M60">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.4371107092663316E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>2269</v>
       </c>
       <c r="B61">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D61">
+        <v>130</v>
+      </c>
+      <c r="E61" s="1" cm="1">
+        <f t="array" aca="1" ref="E61" ca="1">INDIRECT("A"&amp;(D61+2))-A$2</f>
+        <v>7.5509259259254335E-5</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.5239999999982379</v>
+      </c>
+      <c r="G61">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D61+1)))</f>
+        <v>2.3442307692307707</v>
+      </c>
+      <c r="H61">
+        <f t="shared" ca="1" si="1"/>
+        <v>-9.3650020865609918E-4</v>
+      </c>
+      <c r="J61" s="1" cm="1">
+        <f t="array" aca="1" ref="J61" ca="1">INDIRECT("A"&amp;(D61+11))-A$11</f>
+        <v>7.5196759259155144E-5</v>
+      </c>
+      <c r="K61" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.496999999989673</v>
+      </c>
+      <c r="L61">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D61+11)))</f>
+        <v>2.3449618320610703</v>
+      </c>
+      <c r="M61">
+        <f t="shared" ca="1" si="3"/>
+        <v>-2.0543737835643228E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>2270</v>
       </c>
       <c r="B62">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D62">
+        <v>135</v>
+      </c>
+      <c r="E62" s="1" cm="1">
+        <f t="array" aca="1" ref="E62" ca="1">INDIRECT("A"&amp;(D62+2))-A$2</f>
+        <v>7.8402777777819566E-5</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.7740000000022222</v>
+      </c>
+      <c r="G62">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D62+1)))</f>
+        <v>2.3448888888888906</v>
+      </c>
+      <c r="H62">
+        <f t="shared" ca="1" si="1"/>
+        <v>-2.783805505361947E-4</v>
+      </c>
+      <c r="J62" s="1" cm="1">
+        <f t="array" aca="1" ref="J62" ca="1">INDIRECT("A"&amp;(D62+11))-A$11</f>
+        <v>7.8113425925896429E-5</v>
+      </c>
+      <c r="K62" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.7489999999960686</v>
+      </c>
+      <c r="L62">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D62+11)))</f>
+        <v>2.3450735294117666</v>
+      </c>
+      <c r="M62">
+        <f t="shared" ca="1" si="3"/>
+        <v>-9.3740027660160763E-5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>2271</v>
       </c>
       <c r="B63">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D63">
+        <v>140</v>
+      </c>
+      <c r="E63" s="1" cm="1">
+        <f t="array" aca="1" ref="E63" ca="1">INDIRECT("A"&amp;(D63+2))-A$2</f>
+        <v>8.1307870370417312E-5</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.025000000002616</v>
+      </c>
+      <c r="G63">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D63+1)))</f>
+        <v>2.3460000000000014</v>
+      </c>
+      <c r="H63">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.3273056057464601E-4</v>
+      </c>
+      <c r="J63" s="1" cm="1">
+        <f t="array" aca="1" ref="J63" ca="1">INDIRECT("A"&amp;(D63+11))-A$11</f>
+        <v>8.1354166666658401E-5</v>
+      </c>
+      <c r="K63" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.0289999999978452</v>
+      </c>
+      <c r="L63">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D63+11)))</f>
+        <v>2.3446808510638308</v>
+      </c>
+      <c r="M63">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4.8641837559593171E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>2272</v>
       </c>
       <c r="B64">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D64">
+        <v>145</v>
+      </c>
+      <c r="E64" s="1" cm="1">
+        <f t="array" aca="1" ref="E64" ca="1">INDIRECT("A"&amp;(D64+2))-A$2</f>
+        <v>8.4166666666662948E-5</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.2719999999981884</v>
+      </c>
+      <c r="G64">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D64+1)))</f>
+        <v>2.3460689655172429</v>
+      </c>
+      <c r="H64">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.0169607781609429E-4</v>
+      </c>
+      <c r="J64" s="1" cm="1">
+        <f t="array" aca="1" ref="J64" ca="1">INDIRECT("A"&amp;(D64+11))-A$11</f>
+        <v>8.4178240740695465E-5</v>
+      </c>
+      <c r="K64" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.2729999999945969</v>
+      </c>
+      <c r="L64">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D64+11)))</f>
+        <v>2.3447260273972614</v>
+      </c>
+      <c r="M64">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4.4124204216533514E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>2273</v>
       </c>
       <c r="B65">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D65">
+        <v>150</v>
+      </c>
+      <c r="E65" s="1" cm="1">
+        <f t="array" aca="1" ref="E65" ca="1">INDIRECT("A"&amp;(D65+2))-A$2</f>
+        <v>8.7048611111195662E-5</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.5210000000057633</v>
+      </c>
+      <c r="G65">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D65+1)))</f>
+        <v>2.3456666666666677</v>
+      </c>
+      <c r="H65">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.9939722724090529E-4</v>
+      </c>
+      <c r="J65" s="1" cm="1">
+        <f t="array" aca="1" ref="J65" ca="1">INDIRECT("A"&amp;(D65+11))-A$11</f>
+        <v>8.7013888888876068E-5</v>
+      </c>
+      <c r="K65" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.5179999999973512</v>
+      </c>
+      <c r="L65">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D65+11)))</f>
+        <v>2.3443046357615898</v>
+      </c>
+      <c r="M65">
+        <f t="shared" ca="1" si="3"/>
+        <v>-8.6263367783701028E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>2274</v>
       </c>
       <c r="B66">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D66">
+        <v>155</v>
+      </c>
+      <c r="E66" s="1" cm="1">
+        <f t="array" aca="1" ref="E66" ca="1">INDIRECT("A"&amp;(D66+2))-A$2</f>
+        <v>8.9872685185232726E-5</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.7650000000025159</v>
+      </c>
+      <c r="G66">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D66+1)))</f>
+        <v>2.3456774193548395</v>
+      </c>
+      <c r="H66">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.1014991541276089E-4</v>
+      </c>
+      <c r="J66" s="1" cm="1">
+        <f t="array" aca="1" ref="J66" ca="1">INDIRECT("A"&amp;(D66+11))-A$11</f>
+        <v>8.9872685185121703E-5</v>
+      </c>
+      <c r="K66" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.7649999999929236</v>
+      </c>
+      <c r="L66">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D66+11)))</f>
+        <v>2.3438461538461541</v>
+      </c>
+      <c r="M66">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.3211155932726371E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>2275</v>
       </c>
       <c r="B67">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D67">
+        <v>160</v>
+      </c>
+      <c r="E67" s="1" cm="1">
+        <f t="array" aca="1" ref="E67" ca="1">INDIRECT("A"&amp;(D67+2))-A$2</f>
+        <v>9.2662037037061218E-5</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.0060000000004479</v>
+      </c>
+      <c r="G67">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D67+1)))</f>
+        <v>2.3452500000000005</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.2730560573729406E-5</v>
+      </c>
+      <c r="J67" s="1" cm="1">
+        <f t="array" aca="1" ref="J67" ca="1">INDIRECT("A"&amp;(D67+11))-A$11</f>
+        <v>9.2604166666565568E-5</v>
+      </c>
+      <c r="K67" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.0009999999896255</v>
+      </c>
+      <c r="L67">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D67+11)))</f>
+        <v>2.3450310559006211</v>
+      </c>
+      <c r="M67">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.3621353880566289E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>2276</v>
       </c>
       <c r="B68">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D68">
+        <v>165</v>
+      </c>
+      <c r="E68" s="1" cm="1">
+        <f t="array" aca="1" ref="E68" ca="1">INDIRECT("A"&amp;(D68+2))-A$2</f>
+        <v>9.5520833333417876E-5</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.2530000000056134</v>
+      </c>
+      <c r="G68">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D68+1)))</f>
+        <v>2.3447878787878791</v>
+      </c>
+      <c r="H68">
+        <f t="shared" ca="1" si="1"/>
+        <v>-3.7939065154768414E-4</v>
+      </c>
+      <c r="J68" s="1" cm="1">
+        <f t="array" aca="1" ref="J68" ca="1">INDIRECT("A"&amp;(D68+11))-A$11</f>
+        <v>9.5439814814746171E-5</v>
+      </c>
+      <c r="K68" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.2459999999923781</v>
+      </c>
+      <c r="L68">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D68+11)))</f>
+        <v>2.3460843373493976</v>
+      </c>
+      <c r="M68">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.1706790997081455E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>2277</v>
       </c>
       <c r="B69">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D69">
+        <v>170</v>
+      </c>
+      <c r="E69" s="1" cm="1">
+        <f t="array" aca="1" ref="E69" ca="1">INDIRECT("A"&amp;(D69+2))-A$2</f>
+        <v>9.865740740744311E-5</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.5240000000013367</v>
+      </c>
+      <c r="G69">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D69+1)))</f>
+        <v>2.3458823529411768</v>
+      </c>
+      <c r="H69">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.1508350174998014E-4</v>
+      </c>
+      <c r="J69" s="1" cm="1">
+        <f t="array" aca="1" ref="J69" ca="1">INDIRECT("A"&amp;(D69+11))-A$11</f>
+        <v>9.8692129629651681E-5</v>
+      </c>
+      <c r="K69" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.5270000000001573</v>
+      </c>
+      <c r="L69">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D69+11)))</f>
+        <v>2.3461988304093571</v>
+      </c>
+      <c r="M69">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0315609699302897E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>2278</v>
       </c>
       <c r="B70">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D70">
+        <v>175</v>
+      </c>
+      <c r="E70" s="1" cm="1">
+        <f t="array" aca="1" ref="E70" ca="1">INDIRECT("A"&amp;(D70+2))-A$2</f>
+        <v>1.0149305555562371E-4</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.7690000000040911</v>
+      </c>
+      <c r="G70">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D70+1)))</f>
+        <v>2.346857142857143</v>
+      </c>
+      <c r="H70">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.6898734177162034E-3</v>
+      </c>
+      <c r="J70" s="1" cm="1">
+        <f t="array" aca="1" ref="J70" ca="1">INDIRECT("A"&amp;(D70+11))-A$11</f>
+        <v>1.0149305555551269E-4</v>
+      </c>
+      <c r="K70" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.7689999999944988</v>
+      </c>
+      <c r="L70">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D70+11)))</f>
+        <v>2.3462500000000008</v>
+      </c>
+      <c r="M70">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0827305605740634E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>2279</v>
       </c>
       <c r="B71">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D71">
+        <v>180</v>
+      </c>
+      <c r="E71" s="1" cm="1">
+        <f t="array" aca="1" ref="E71" ca="1">INDIRECT("A"&amp;(D71+2))-A$2</f>
+        <v>1.0435185185198037E-4</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.0160000000092548</v>
+      </c>
+      <c r="G71">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D71+1)))</f>
+        <v>2.3469444444444445</v>
+      </c>
+      <c r="H71">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.7771750050177282E-3</v>
+      </c>
+      <c r="J71" s="1" cm="1">
+        <f t="array" aca="1" ref="J71" ca="1">INDIRECT("A"&amp;(D71+11))-A$11</f>
+        <v>1.0440972222225398E-4</v>
+      </c>
+      <c r="K71" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.0210000000008943</v>
+      </c>
+      <c r="L71">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D71+11)))</f>
+        <v>2.3463535911602222</v>
+      </c>
+      <c r="M71">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.186321720795469E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>2280</v>
       </c>
       <c r="B72">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D72">
+        <v>185</v>
+      </c>
+      <c r="E72" s="1" cm="1">
+        <f t="array" aca="1" ref="E72" ca="1">INDIRECT("A"&amp;(D72+2))-A$2</f>
+        <v>1.0715277777784138E-4</v>
+      </c>
+      <c r="F72" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.258000000003598</v>
+      </c>
+      <c r="G72">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D72+1)))</f>
+        <v>2.3469729729729734</v>
+      </c>
+      <c r="H72">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.8057035335465876E-3</v>
+      </c>
+      <c r="J72" s="1" cm="1">
+        <f t="array" aca="1" ref="J72" ca="1">INDIRECT("A"&amp;(D72+11))-A$11</f>
+        <v>1.0724537037032356E-4</v>
+      </c>
+      <c r="K72" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.2659999999940563</v>
+      </c>
+      <c r="L72">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D72+11)))</f>
+        <v>2.3460215053763447</v>
+      </c>
+      <c r="M72">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.5423593691791311E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>2281</v>
       </c>
       <c r="B73">
         <v>2.31</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D73">
+        <v>190</v>
+      </c>
+      <c r="E73" s="1" cm="1">
+        <f t="array" aca="1" ref="E73" ca="1">INDIRECT("A"&amp;(D73+2))-A$2</f>
+        <v>1.1011574074082375E-4</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.5140000000052218</v>
+      </c>
+      <c r="G73">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D73+1)))</f>
+        <v>2.3470526315789484</v>
+      </c>
+      <c r="H73">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.885362139521618E-3</v>
+      </c>
+      <c r="J73" s="1" cm="1">
+        <f t="array" aca="1" ref="J73" ca="1">INDIRECT("A"&amp;(D73+11))-A$11</f>
+        <v>1.1016203703695382E-4</v>
+      </c>
+      <c r="K73" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.5179999999908578</v>
+      </c>
+      <c r="L73">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D73+11)))</f>
+        <v>2.3451832460732991</v>
+      </c>
+      <c r="M73">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.5976633872316626E-5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>2282</v>
       </c>
       <c r="B74">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D74">
+        <v>195</v>
+      </c>
+      <c r="E74" s="1" cm="1">
+        <f t="array" aca="1" ref="E74" ca="1">INDIRECT("A"&amp;(D74+2))-A$2</f>
+        <v>1.1290509259265225E-4</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.7550000000031538</v>
+      </c>
+      <c r="G74">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D74+1)))</f>
+        <v>2.3467179487179495</v>
+      </c>
+      <c r="H74">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.5506792785227042E-3</v>
+      </c>
+      <c r="J74" s="1" cm="1">
+        <f t="array" aca="1" ref="J74" ca="1">INDIRECT("A"&amp;(D74+11))-A$11</f>
+        <v>1.1287037037033265E-4</v>
+      </c>
+      <c r="K74" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.7519999999947427</v>
+      </c>
+      <c r="L74">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D74+11)))</f>
+        <v>2.3439285714285725</v>
+      </c>
+      <c r="M74">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.2386980108543E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>2283</v>
       </c>
       <c r="B75">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D75">
+        <v>200</v>
+      </c>
+      <c r="E75" s="1" cm="1">
+        <f t="array" aca="1" ref="E75" ca="1">INDIRECT("A"&amp;(D75+2))-A$2</f>
+        <v>1.1582175925928251E-4</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.006999999999959</v>
+      </c>
+      <c r="G75">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D75+1)))</f>
+        <v>2.3459000000000008</v>
+      </c>
+      <c r="H75">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.3273056057399089E-4</v>
+      </c>
+      <c r="J75" s="1" cm="1">
+        <f t="array" aca="1" ref="J75" ca="1">INDIRECT("A"&amp;(D75+11))-A$11</f>
+        <v>1.1605324074071E-4</v>
+      </c>
+      <c r="K75" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>10.026999999995288</v>
+      </c>
+      <c r="L75">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D75+11)))</f>
+        <v>2.3436815920398018</v>
+      </c>
+      <c r="M75">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.4856773996250183E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>2284</v>
       </c>
       <c r="B76">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D76">
+        <v>205</v>
+      </c>
+      <c r="E76" s="1" cm="1">
+        <f t="array" aca="1" ref="E76" ca="1">INDIRECT("A"&amp;(D76+2))-A$2</f>
+        <v>1.1891203703706665E-4</v>
+      </c>
+      <c r="F76" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.274000000000454</v>
+      </c>
+      <c r="G76">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D76+1)))</f>
+        <v>2.344682926829269</v>
+      </c>
+      <c r="H76">
+        <f t="shared" ca="1" si="1"/>
+        <v>-4.8434261015772861E-4</v>
+      </c>
+      <c r="J76" s="1" cm="1">
+        <f t="array" aca="1" ref="J76" ca="1">INDIRECT("A"&amp;(D76+11))-A$11</f>
+        <v>1.1883101851850597E-4</v>
+      </c>
+      <c r="K76" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>10.266999999996811</v>
+      </c>
+      <c r="L76">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D76+11)))</f>
+        <v>2.3436893203883504</v>
+      </c>
+      <c r="M76">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.4779490510763438E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>2285</v>
       </c>
       <c r="B77">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D77">
+        <v>210</v>
+      </c>
+      <c r="E77" s="1" cm="1">
+        <f t="array" aca="1" ref="E77" ca="1">INDIRECT("A"&amp;(D77+2))-A$2</f>
+        <v>1.2173611111121474E-4</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.518000000006797</v>
+      </c>
+      <c r="G77">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D77+1)))</f>
+        <v>2.3444285714285722</v>
+      </c>
+      <c r="H77">
+        <f t="shared" ca="1" si="1"/>
+        <v>-7.3869801085457709E-4</v>
+      </c>
+      <c r="J77" s="1" cm="1">
+        <f t="array" aca="1" ref="J77" ca="1">INDIRECT("A"&amp;(D77+11))-A$11</f>
+        <v>1.217245370370712E-4</v>
+      </c>
+      <c r="K77" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>10.517000000000797</v>
+      </c>
+      <c r="L77">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D77+11)))</f>
+        <v>2.3429857819905222</v>
+      </c>
+      <c r="M77">
+        <f t="shared" ca="1" si="3"/>
+        <v>-2.1814874489045621E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>2286</v>
       </c>
       <c r="B78">
         <v>2.31</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D78">
+        <v>215</v>
+      </c>
+      <c r="E78" s="1" cm="1">
+        <f t="array" aca="1" ref="E78" ca="1">INDIRECT("A"&amp;(D78+2))-A$2</f>
+        <v>1.2450231481486718E-4</v>
+      </c>
+      <c r="F78" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.75700000000232</v>
+      </c>
+      <c r="G78">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D78+1)))</f>
+        <v>2.3444186046511635</v>
+      </c>
+      <c r="H78">
+        <f t="shared" ca="1" si="1"/>
+        <v>-7.4866478826329796E-4</v>
+      </c>
+      <c r="J78" s="1" cm="1">
+        <f t="array" aca="1" ref="J78" ca="1">INDIRECT("A"&amp;(D78+11))-A$11</f>
+        <v>1.2452546296293221E-4</v>
+      </c>
+      <c r="K78" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>10.758999999995137</v>
+      </c>
+      <c r="L78">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D78+11)))</f>
+        <v>2.3435185185185192</v>
+      </c>
+      <c r="M78">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.648750920907549E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>2287</v>
       </c>
       <c r="B79">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D79">
+        <v>220</v>
+      </c>
+      <c r="E79" s="1" cm="1">
+        <f t="array" aca="1" ref="E79" ca="1">INDIRECT("A"&amp;(D79+2))-A$2</f>
+        <v>1.2737268518525635E-4</v>
+      </c>
+      <c r="F79" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.005000000003895</v>
+      </c>
+      <c r="G79">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D79+1)))</f>
+        <v>2.3437272727272731</v>
+      </c>
+      <c r="H79">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.4399967121536683E-3</v>
+      </c>
+      <c r="J79" s="1" cm="1">
+        <f t="array" aca="1" ref="J79" ca="1">INDIRECT("A"&amp;(D79+11))-A$11</f>
+        <v>1.2748842592591458E-4</v>
+      </c>
+      <c r="K79" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>11.014999999996762</v>
+      </c>
+      <c r="L79">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D79+11)))</f>
+        <v>2.3446606334841631</v>
+      </c>
+      <c r="M79">
+        <f t="shared" ca="1" si="3"/>
+        <v>-5.0663595526367899E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>2288</v>
       </c>
       <c r="B80">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D80">
+        <v>225</v>
+      </c>
+      <c r="E80" s="1" cm="1">
+        <f t="array" aca="1" ref="E80" ca="1">INDIRECT("A"&amp;(D80+2))-A$2</f>
+        <v>1.3023148148150199E-4</v>
+      </c>
+      <c r="F80" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.251999999999466</v>
+      </c>
+      <c r="G80">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D80+1)))</f>
+        <v>2.3442222222222231</v>
+      </c>
+      <c r="H80">
+        <f t="shared" ca="1" si="1"/>
+        <v>-9.4504721720367613E-4</v>
+      </c>
+      <c r="J80" s="1" cm="1">
+        <f t="array" aca="1" ref="J80" ca="1">INDIRECT("A"&amp;(D80+11))-A$11</f>
+        <v>1.3038194444447981E-4</v>
+      </c>
+      <c r="K80" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>11.265000000000747</v>
+      </c>
+      <c r="L80">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D80+11)))</f>
+        <v>2.3449115044247795</v>
+      </c>
+      <c r="M80">
+        <f t="shared" ca="1" si="3"/>
+        <v>-2.5576501464730228E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>2289</v>
       </c>
       <c r="B81">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D81">
+        <v>230</v>
+      </c>
+      <c r="E81" s="1" cm="1">
+        <f t="array" aca="1" ref="E81" ca="1">INDIRECT("A"&amp;(D81+2))-A$2</f>
+        <v>1.3318287037034082E-4</v>
+      </c>
+      <c r="F81" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.506999999995088</v>
+      </c>
+      <c r="G81">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D81+1)))</f>
+        <v>2.3453043478260871</v>
+      </c>
+      <c r="H81">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.3707838666032757E-4</v>
+      </c>
+      <c r="J81" s="1" cm="1">
+        <f t="array" aca="1" ref="J81" ca="1">INDIRECT("A"&amp;(D81+11))-A$11</f>
+        <v>1.3322916666669293E-4</v>
+      </c>
+      <c r="K81" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>11.510999999999909</v>
+      </c>
+      <c r="L81">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D81+11)))</f>
+        <v>2.3445887445887461</v>
+      </c>
+      <c r="M81">
+        <f t="shared" ca="1" si="3"/>
+        <v>-5.7852485068066173E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>2290</v>
       </c>
       <c r="B82">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D82">
+        <v>235</v>
+      </c>
+      <c r="E82" s="1" cm="1">
+        <f t="array" aca="1" ref="E82" ca="1">INDIRECT("A"&amp;(D82+2))-A$2</f>
+        <v>1.3603009259266496E-4</v>
+      </c>
+      <c r="F82" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.753000000003844</v>
+      </c>
+      <c r="G82">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D82+1)))</f>
+        <v>2.3455319148936176</v>
+      </c>
+      <c r="H82">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.6464545419079286E-4</v>
+      </c>
+      <c r="J82" s="1" cm="1">
+        <f t="array" aca="1" ref="J82" ca="1">INDIRECT("A"&amp;(D82+11))-A$11</f>
+        <v>1.3604166666669748E-4</v>
+      </c>
+      <c r="K82" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>11.754000000000252</v>
+      </c>
+      <c r="L82">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D82+11)))</f>
+        <v>2.3438559322033901</v>
+      </c>
+      <c r="M82">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.3113372360367137E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>2291</v>
       </c>
       <c r="B83">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D83">
+        <v>240</v>
+      </c>
+      <c r="E83" s="1" cm="1">
+        <f t="array" aca="1" ref="E83" ca="1">INDIRECT("A"&amp;(D83+2))-A$2</f>
+        <v>1.3930555555563551E-4</v>
+      </c>
+      <c r="F83" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.03600000000444</v>
+      </c>
+      <c r="G83">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D83+1)))</f>
+        <v>2.3452083333333347</v>
+      </c>
+      <c r="H83">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.1063893907899995E-5</v>
+      </c>
+      <c r="J83" s="1" cm="1">
+        <f t="array" aca="1" ref="J83" ca="1">INDIRECT("A"&amp;(D83+11))-A$11</f>
+        <v>1.388888888889106E-4</v>
+      </c>
+      <c r="K83" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>11.999999999999416</v>
+      </c>
+      <c r="L83">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D83+11)))</f>
+        <v>2.3436099585062253</v>
+      </c>
+      <c r="M83">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.557310933201439E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>2292</v>
       </c>
       <c r="B84">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D84">
+        <v>245</v>
+      </c>
+      <c r="E84" s="1" cm="1">
+        <f t="array" aca="1" ref="E84" ca="1">INDIRECT("A"&amp;(D84+2))-A$2</f>
+        <v>1.4216435185188114E-4</v>
+      </c>
+      <c r="F84" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.283000000000014</v>
+      </c>
+      <c r="G84">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D84+1)))</f>
+        <v>2.3444897959183679</v>
+      </c>
+      <c r="H84">
+        <f t="shared" ca="1" si="1"/>
+        <v>-6.7747352105884673E-4</v>
+      </c>
+      <c r="J84" s="1" cm="1">
+        <f t="array" aca="1" ref="J84" ca="1">INDIRECT("A"&amp;(D84+11))-A$11</f>
+        <v>1.4180555555554086E-4</v>
+      </c>
+      <c r="K84" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>12.251999999996219</v>
+      </c>
+      <c r="L84">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D84+11)))</f>
+        <v>2.3438617886178879</v>
+      </c>
+      <c r="M84">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.305480821538918E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>2293</v>
       </c>
       <c r="B85">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D85">
+        <v>250</v>
+      </c>
+      <c r="E85" s="1" cm="1">
+        <f t="array" aca="1" ref="E85" ca="1">INDIRECT("A"&amp;(D85+2))-A$2</f>
+        <v>1.4493055555553358E-4</v>
+      </c>
+      <c r="F85" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.521999999995534</v>
+      </c>
+      <c r="G85">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D85+1)))</f>
+        <v>2.344240000000001</v>
+      </c>
+      <c r="H85">
+        <f t="shared" ca="1" si="1"/>
+        <v>-9.2726943942578188E-4</v>
+      </c>
+      <c r="J85" s="1" cm="1">
+        <f t="array" aca="1" ref="J85" ca="1">INDIRECT("A"&amp;(D85+11))-A$11</f>
+        <v>1.4504629629630283E-4</v>
+      </c>
+      <c r="K85" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>12.531999999997996</v>
+      </c>
+      <c r="L85">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D85+11)))</f>
+        <v>2.344063745019922</v>
+      </c>
+      <c r="M85">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.1035244195047866E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>2294</v>
       </c>
       <c r="B86">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D86">
+        <v>255</v>
+      </c>
+      <c r="E86" s="1" cm="1">
+        <f t="array" aca="1" ref="E86" ca="1">INDIRECT("A"&amp;(D86+2))-A$2</f>
+        <v>1.4790509259265949E-4</v>
+      </c>
+      <c r="F86" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.77900000000316</v>
+      </c>
+      <c r="G86">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D86+1)))</f>
+        <v>2.3444705882352954</v>
+      </c>
+      <c r="H86">
+        <f t="shared" ca="1" si="1"/>
+        <v>-6.9668120413135526E-4</v>
+      </c>
+      <c r="J86" s="1" cm="1">
+        <f t="array" aca="1" ref="J86" ca="1">INDIRECT("A"&amp;(D86+11))-A$11</f>
+        <v>1.4784722222216384E-4</v>
+      </c>
+      <c r="K86" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>12.773999999992338</v>
+      </c>
+      <c r="L86">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D86+11)))</f>
+        <v>2.3439843750000025</v>
+      </c>
+      <c r="M86">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.1828944394243202E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>2295</v>
       </c>
       <c r="B87">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D87">
+        <v>260</v>
+      </c>
+      <c r="E87" s="1" cm="1">
+        <f t="array" aca="1" ref="E87" ca="1">INDIRECT("A"&amp;(D87+2))-A$2</f>
+        <v>1.507060185185205E-4</v>
+      </c>
+      <c r="F87" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.020999999997503</v>
+      </c>
+      <c r="G87">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D87+1)))</f>
+        <v>2.344653846153848</v>
+      </c>
+      <c r="H87">
+        <f t="shared" ca="1" si="1"/>
+        <v>-5.1342328557879569E-4</v>
+      </c>
+      <c r="J87" s="1" cm="1">
+        <f t="array" aca="1" ref="J87" ca="1">INDIRECT("A"&amp;(D87+11))-A$11</f>
+        <v>1.5072916666669656E-4</v>
+      </c>
+      <c r="K87" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>13.022999999999913</v>
+      </c>
+      <c r="L87">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D87+11)))</f>
+        <v>2.3436398467432982</v>
+      </c>
+      <c r="M87">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.5274226961285997E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>2296</v>
       </c>
       <c r="B88">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D88">
+        <v>265</v>
+      </c>
+      <c r="E88" s="1" cm="1">
+        <f t="array" aca="1" ref="E88" ca="1">INDIRECT("A"&amp;(D88+2))-A$2</f>
+        <v>1.5351851851863607E-4</v>
+      </c>
+      <c r="F88" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.264000000007437</v>
+      </c>
+      <c r="G88">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D88+1)))</f>
+        <v>2.3445660377358513</v>
+      </c>
+      <c r="H88">
+        <f t="shared" ca="1" si="1"/>
+        <v>-6.0123170357551103E-4</v>
+      </c>
+      <c r="J88" s="1" cm="1">
+        <f t="array" aca="1" ref="J88" ca="1">INDIRECT("A"&amp;(D88+11))-A$11</f>
+        <v>1.5357638888890968E-4</v>
+      </c>
+      <c r="K88" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>13.268999999999076</v>
+      </c>
+      <c r="L88">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D88+11)))</f>
+        <v>2.3435714285714324</v>
+      </c>
+      <c r="M88">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.5958408679943581E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>2297</v>
       </c>
       <c r="B89">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D89">
+        <v>270</v>
+      </c>
+      <c r="E89" s="1" cm="1">
+        <f t="array" aca="1" ref="E89" ca="1">INDIRECT("A"&amp;(D89+2))-A$2</f>
+        <v>1.5643518518526633E-4</v>
+      </c>
+      <c r="F89" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.516000000004242</v>
+      </c>
+      <c r="G89">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D89+1)))</f>
+        <v>2.3442222222222253</v>
+      </c>
+      <c r="H89">
+        <f t="shared" ca="1" si="1"/>
+        <v>-9.4504721720145568E-4</v>
+      </c>
+      <c r="J89" s="1" cm="1">
+        <f t="array" aca="1" ref="J89" ca="1">INDIRECT("A"&amp;(D89+11))-A$11</f>
+        <v>1.5646990740736388E-4</v>
+      </c>
+      <c r="K89" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>13.518999999993468</v>
+      </c>
+      <c r="L89">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D89+11)))</f>
+        <v>2.3433948339483437</v>
+      </c>
+      <c r="M89">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.7724354910830797E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>2298</v>
       </c>
       <c r="B90">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D90">
+        <v>275</v>
+      </c>
+      <c r="E90" s="1" cm="1">
+        <f t="array" aca="1" ref="E90" ca="1">INDIRECT("A"&amp;(D90+2))-A$2</f>
+        <v>1.5928240740747945E-4</v>
+      </c>
+      <c r="F90" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.762000000003402</v>
+      </c>
+      <c r="G90">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D90+1)))</f>
+        <v>2.3441454545454583</v>
+      </c>
+      <c r="H90">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.0218148939684646E-3</v>
+      </c>
+      <c r="J90" s="1" cm="1">
+        <f t="array" aca="1" ref="J90" ca="1">INDIRECT("A"&amp;(D90+11))-A$11</f>
+        <v>1.591666666667102E-4</v>
+      </c>
+      <c r="K90" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>13.752000000000942</v>
+      </c>
+      <c r="L90">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D90+11)))</f>
+        <v>2.3431159420289904</v>
+      </c>
+      <c r="M90">
+        <f t="shared" ca="1" si="3"/>
+        <v>-2.0513274104363433E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>2299</v>
       </c>
       <c r="B91">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D91">
+        <v>280</v>
+      </c>
+      <c r="E91" s="1" cm="1">
+        <f t="array" aca="1" ref="E91" ca="1">INDIRECT("A"&amp;(D91+2))-A$2</f>
+        <v>1.6211805555554903E-4</v>
+      </c>
+      <c r="F91" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>14.006999999996566</v>
+      </c>
+      <c r="G91">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D91+1)))</f>
+        <v>2.3439642857142902</v>
+      </c>
+      <c r="H91">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.2029837251366082E-3</v>
+      </c>
+      <c r="J91" s="1" cm="1">
+        <f t="array" aca="1" ref="J91" ca="1">INDIRECT("A"&amp;(D91+11))-A$11</f>
+        <v>1.6206018518516441E-4</v>
+      </c>
+      <c r="K91" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>14.001999999995334</v>
+      </c>
+      <c r="L91">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D91+11)))</f>
+        <v>2.3420284697508942</v>
+      </c>
+      <c r="M91">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3.1387996885325897E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>2300</v>
       </c>
       <c r="B92">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D92">
+        <v>285</v>
+      </c>
+      <c r="E92" s="1" cm="1">
+        <f t="array" aca="1" ref="E92" ca="1">INDIRECT("A"&amp;(D92+2))-A$2</f>
+        <v>1.6523148148150923E-4</v>
+      </c>
+      <c r="F92" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>14.275999999999472</v>
+      </c>
+      <c r="G92">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D92+1)))</f>
+        <v>2.3436842105263209</v>
+      </c>
+      <c r="H92">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.4830589131058503E-3</v>
+      </c>
+      <c r="J92" s="1" cm="1">
+        <f t="array" aca="1" ref="J92" ca="1">INDIRECT("A"&amp;(D92+11))-A$11</f>
+        <v>1.6490740740737753E-4</v>
+      </c>
+      <c r="K92" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>14.247999999994498</v>
+      </c>
+      <c r="L92">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D92+11)))</f>
+        <v>2.3415034965035009</v>
+      </c>
+      <c r="M92">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3.6637729359259019E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>2301</v>
       </c>
       <c r="B93">
         <v>2.31</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D93">
+        <v>290</v>
+      </c>
+      <c r="E93" s="1" cm="1">
+        <f t="array" aca="1" ref="E93" ca="1">INDIRECT("A"&amp;(D93+2))-A$2</f>
+        <v>1.6812500000007446E-4</v>
+      </c>
+      <c r="F93" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>14.526000000003457</v>
+      </c>
+      <c r="G93">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D93+1)))</f>
+        <v>2.3426206896551767</v>
+      </c>
+      <c r="H93">
+        <f t="shared" ca="1" si="1"/>
+        <v>-2.5465797842501026E-3</v>
+      </c>
+      <c r="J93" s="1" cm="1">
+        <f t="array" aca="1" ref="J93" ca="1">INDIRECT("A"&amp;(D93+11))-A$11</f>
+        <v>1.6812499999996344E-4</v>
+      </c>
+      <c r="K93" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>14.525999999993862</v>
+      </c>
+      <c r="L93">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D93+11)))</f>
+        <v>2.3425085910652959</v>
+      </c>
+      <c r="M93">
+        <f t="shared" ca="1" si="3"/>
+        <v>-2.6586783741309183E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>2302</v>
       </c>
       <c r="B94">
         <v>2.31</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D94">
+        <v>295</v>
+      </c>
+      <c r="E94" s="1" cm="1">
+        <f t="array" aca="1" ref="E94" ca="1">INDIRECT("A"&amp;(D94+2))-A$2</f>
+        <v>1.709837962963201E-4</v>
+      </c>
+      <c r="F94" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>14.772999999999028</v>
+      </c>
+      <c r="G94">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D94+1)))</f>
+        <v>2.3421016949152582</v>
+      </c>
+      <c r="H94">
+        <f t="shared" ca="1" si="1"/>
+        <v>-3.0655745241685572E-3</v>
+      </c>
+      <c r="J94" s="1" cm="1">
+        <f t="array" aca="1" ref="J94" ca="1">INDIRECT("A"&amp;(D94+11))-A$11</f>
+        <v>1.7091435185179193E-4</v>
+      </c>
+      <c r="K94" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>14.766999999991796</v>
+      </c>
+      <c r="L94">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D94+11)))</f>
+        <v>2.3432094594594632</v>
+      </c>
+      <c r="M94">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.9578099799635318E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>2303</v>
       </c>
       <c r="B95">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D95">
+        <v>300</v>
+      </c>
+      <c r="E95" s="1" cm="1">
+        <f t="array" aca="1" ref="E95" ca="1">INDIRECT("A"&amp;(D95+2))-A$2</f>
+        <v>1.7377314814825962E-4</v>
+      </c>
+      <c r="F95" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>15.014000000006554</v>
+      </c>
+      <c r="G95">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D95+1)))</f>
+        <v>2.3430666666666702</v>
+      </c>
+      <c r="H95">
+        <f t="shared" ca="1" si="1"/>
+        <v>-2.1006027727565879E-3</v>
+      </c>
+      <c r="J95" s="1" cm="1">
+        <f t="array" aca="1" ref="J95" ca="1">INDIRECT("A"&amp;(D95+11))-A$11</f>
+        <v>1.7379629629621363E-4</v>
+      </c>
+      <c r="K95" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>15.015999999989781</v>
+      </c>
+      <c r="L95">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D95+11)))</f>
+        <v>2.3436212624584756</v>
+      </c>
+      <c r="M95">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.5460069809511978E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>2304</v>
       </c>
       <c r="B96">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D96">
+        <v>305</v>
+      </c>
+      <c r="E96" s="1" cm="1">
+        <f t="array" aca="1" ref="E96" ca="1">INDIRECT("A"&amp;(D96+2))-A$2</f>
+        <v>1.7658564814815314E-4</v>
+      </c>
+      <c r="F96" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>15.256999999997303</v>
+      </c>
+      <c r="G96">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D96+1)))</f>
+        <v>2.3437377049180363</v>
+      </c>
+      <c r="H96">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.4295645213904251E-3</v>
+      </c>
+      <c r="J96" s="1" cm="1">
+        <f t="array" aca="1" ref="J96" ca="1">INDIRECT("A"&amp;(D96+11))-A$11</f>
+        <v>1.766666666666028E-4</v>
+      </c>
+      <c r="K96" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>15.263999999991354</v>
+      </c>
+      <c r="L96">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D96+11)))</f>
+        <v>2.3439215686274548</v>
+      </c>
+      <c r="M96">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.2457008119719504E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>2305</v>
       </c>
       <c r="B97">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D97">
+        <v>310</v>
+      </c>
+      <c r="E97" s="1" cm="1">
+        <f t="array" aca="1" ref="E97" ca="1">INDIRECT("A"&amp;(D97+2))-A$2</f>
+        <v>1.7947916666671837E-4</v>
+      </c>
+      <c r="F97" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>15.507000000001289</v>
+      </c>
+      <c r="G97">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D97+1)))</f>
+        <v>2.3441290322580679</v>
+      </c>
+      <c r="H97">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.0382371813588698E-3</v>
+      </c>
+      <c r="J97" s="1" cm="1">
+        <f t="array" aca="1" ref="J97" ca="1">INDIRECT("A"&amp;(D97+11))-A$11</f>
+        <v>1.7954861111113551E-4</v>
+      </c>
+      <c r="K97" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>15.512999999998929</v>
+      </c>
+      <c r="L97">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D97+11)))</f>
+        <v>2.3442443729903575</v>
+      </c>
+      <c r="M97">
+        <f t="shared" ca="1" si="3"/>
+        <v>-9.2289644906928814E-4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>2306</v>
       </c>
       <c r="B98">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D98">
+        <v>315</v>
+      </c>
+      <c r="E98" s="1" cm="1">
+        <f t="array" aca="1" ref="E98" ca="1">INDIRECT("A"&amp;(D98+2))-A$2</f>
+        <v>1.8237268518517258E-4</v>
+      </c>
+      <c r="F98" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>15.75699999999568</v>
+      </c>
+      <c r="G98">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D98+1)))</f>
+        <v>2.3444126984127021</v>
+      </c>
+      <c r="H98">
+        <f t="shared" ca="1" si="1"/>
+        <v>-7.5457102672471521E-4</v>
+      </c>
+      <c r="J98" s="1" cm="1">
+        <f t="array" aca="1" ref="J98" ca="1">INDIRECT("A"&amp;(D98+11))-A$11</f>
+        <v>1.8231481481478795E-4</v>
+      </c>
+      <c r="K98" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>15.75199999999445</v>
+      </c>
+      <c r="L98">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D98+11)))</f>
+        <v>2.3446202531645608</v>
+      </c>
+      <c r="M98">
+        <f t="shared" ca="1" si="3"/>
+        <v>-5.4701627486597459E-4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>2307</v>
       </c>
       <c r="B99">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D99">
+        <v>320</v>
+      </c>
+      <c r="E99" s="1" cm="1">
+        <f t="array" aca="1" ref="E99" ca="1">INDIRECT("A"&amp;(D99+2))-A$2</f>
+        <v>1.8559027777786952E-4</v>
+      </c>
+      <c r="F99" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>16.03500000000464</v>
+      </c>
+      <c r="G99">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D99+1)))</f>
+        <v>2.3447187500000037</v>
+      </c>
+      <c r="H99">
+        <f t="shared" ca="1" si="1"/>
+        <v>-4.4851943942303407E-4</v>
+      </c>
+      <c r="J99" s="1" cm="1">
+        <f t="array" aca="1" ref="J99" ca="1">INDIRECT("A"&amp;(D99+11))-A$11</f>
+        <v>1.8552083333334135E-4</v>
+      </c>
+      <c r="K99" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>16.028999999997406</v>
+      </c>
+      <c r="L99">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D99+11)))</f>
+        <v>2.3447352024922159</v>
+      </c>
+      <c r="M99">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4.3206694721087402E-4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>2308</v>
       </c>
       <c r="B100">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D100">
+        <v>325</v>
+      </c>
+      <c r="E100" s="1" cm="1">
+        <f t="array" aca="1" ref="E100" ca="1">INDIRECT("A"&amp;(D100+2))-A$2</f>
+        <v>1.8835648148152195E-4</v>
+      </c>
+      <c r="F100" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>16.274000000000161</v>
+      </c>
+      <c r="G100">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D100+1)))</f>
+        <v>2.3450769230769271</v>
+      </c>
+      <c r="H100">
+        <f t="shared" ca="1" si="1"/>
+        <v>-9.0346362499715838E-5</v>
+      </c>
+      <c r="J100" s="1" cm="1">
+        <f t="array" aca="1" ref="J100" ca="1">INDIRECT("A"&amp;(D100+11))-A$11</f>
+        <v>1.884259259259391E-4</v>
+      </c>
+      <c r="K100" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>16.279999999997802</v>
+      </c>
+      <c r="L100">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D100+11)))</f>
+        <v>2.3448466257668756</v>
+      </c>
+      <c r="M100">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3.2064367255113524E-4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>2309</v>
       </c>
       <c r="B101">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D101">
+        <v>330</v>
+      </c>
+      <c r="E101" s="1" cm="1">
+        <f t="array" aca="1" ref="E101" ca="1">INDIRECT("A"&amp;(D101+2))-A$2</f>
+        <v>1.9121527777787861E-4</v>
+      </c>
+      <c r="F101" s="2">
+        <f t="shared" ref="F101:F115" ca="1" si="4">E101*10.007/0.000115821759259283</f>
+        <v>16.521000000005326</v>
+      </c>
+      <c r="G101">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D101+1)))</f>
+        <v>2.345181818181822</v>
+      </c>
+      <c r="H101">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.4548742395259495E-5</v>
+      </c>
+      <c r="J101" s="1" cm="1">
+        <f t="array" aca="1" ref="J101" ca="1">INDIRECT("A"&amp;(D101+11))-A$11</f>
+        <v>1.9131944444439331E-4</v>
+      </c>
+      <c r="K101" s="2">
+        <f t="shared" ref="K101:K115" ca="1" si="5">J101*10.007/0.000115821759259283</f>
+        <v>16.529999999992192</v>
+      </c>
+      <c r="L101">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D101+11)))</f>
+        <v>2.3453474320241736</v>
+      </c>
+      <c r="M101">
+        <f t="shared" ref="M101:M115" ca="1" si="6">L101-$D$2</f>
+        <v>1.8016258474684577E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>2310</v>
       </c>
       <c r="B102">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D102">
+        <v>335</v>
+      </c>
+      <c r="E102" s="1" cm="1">
+        <f t="array" aca="1" ref="E102" ca="1">INDIRECT("A"&amp;(D102+2))-A$2</f>
+        <v>1.9413194444450887E-4</v>
+      </c>
+      <c r="F102" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>16.773000000002128</v>
+      </c>
+      <c r="G102">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D102+1)))</f>
+        <v>2.3452835820895563</v>
+      </c>
+      <c r="H102">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.163126501295686E-4</v>
+      </c>
+      <c r="J102" s="1" cm="1">
+        <f t="array" aca="1" ref="J102" ca="1">INDIRECT("A"&amp;(D102+11))-A$11</f>
+        <v>1.9413194444439785E-4</v>
+      </c>
+      <c r="K102" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>16.772999999992535</v>
+      </c>
+      <c r="L102">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D102+11)))</f>
+        <v>2.3460119047619088</v>
+      </c>
+      <c r="M102">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.4463532248202355E-4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>2311</v>
       </c>
       <c r="B103">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D103">
+        <v>340</v>
+      </c>
+      <c r="E103" s="1" cm="1">
+        <f t="array" aca="1" ref="E103" ca="1">INDIRECT("A"&amp;(D103+2))-A$2</f>
+        <v>1.9702546296307411E-4</v>
+      </c>
+      <c r="F103" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>17.02300000000611</v>
+      </c>
+      <c r="G103">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D103+1)))</f>
+        <v>2.345764705882357</v>
+      </c>
+      <c r="H103">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.9743644293019926E-4</v>
+      </c>
+      <c r="J103" s="1" cm="1">
+        <f t="array" aca="1" ref="J103" ca="1">INDIRECT("A"&amp;(D103+11))-A$11</f>
+        <v>1.9701388888881954E-4</v>
+      </c>
+      <c r="K103" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>17.02199999999052</v>
+      </c>
+      <c r="L103">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D103+11)))</f>
+        <v>2.3465102639296225</v>
+      </c>
+      <c r="M103">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.3429944901957036E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>2312</v>
       </c>
       <c r="B104">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D104">
+        <v>345</v>
+      </c>
+      <c r="E104" s="1" cm="1">
+        <f t="array" aca="1" ref="E104" ca="1">INDIRECT("A"&amp;(D104+2))-A$2</f>
+        <v>1.9984953703711117E-4</v>
+      </c>
+      <c r="F104" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>17.267000000002866</v>
+      </c>
+      <c r="G104">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D104+1)))</f>
+        <v>2.3464057971014531</v>
+      </c>
+      <c r="H104">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.2385276620263674E-3</v>
+      </c>
+      <c r="J104" s="1" cm="1">
+        <f t="array" aca="1" ref="J104" ca="1">INDIRECT("A"&amp;(D104+11))-A$11</f>
+        <v>1.9981481481479157E-4</v>
+      </c>
+      <c r="K104" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>17.263999999994454</v>
+      </c>
+      <c r="L104">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D104+11)))</f>
+        <v>2.3464161849711025</v>
+      </c>
+      <c r="M104">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.2489155316757206E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>2313</v>
       </c>
       <c r="B105">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D105">
+        <v>350</v>
+      </c>
+      <c r="E105" s="1" cm="1">
+        <f t="array" aca="1" ref="E105" ca="1">INDIRECT("A"&amp;(D105+2))-A$2</f>
+        <v>2.0267361111114823E-4</v>
+      </c>
+      <c r="F105" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>17.510999999999619</v>
+      </c>
+      <c r="G105">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D105+1)))</f>
+        <v>2.346885714285718</v>
+      </c>
+      <c r="H105">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.7184448462912449E-3</v>
+      </c>
+      <c r="J105" s="1" cm="1">
+        <f t="array" aca="1" ref="J105" ca="1">INDIRECT("A"&amp;(D105+11))-A$11</f>
+        <v>2.0269675925921327E-4</v>
+      </c>
+      <c r="K105" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>17.512999999992438</v>
+      </c>
+      <c r="L105">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D105+11)))</f>
+        <v>2.3460113960114004</v>
+      </c>
+      <c r="M105">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.4412657197363572E-4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>2314</v>
       </c>
       <c r="B106">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D106">
+        <v>355</v>
+      </c>
+      <c r="E106" s="1" cm="1">
+        <f t="array" aca="1" ref="E106" ca="1">INDIRECT("A"&amp;(D106+2))-A$2</f>
+        <v>2.0552083333336135E-4</v>
+      </c>
+      <c r="F106" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>17.756999999998779</v>
+      </c>
+      <c r="G106">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D106+1)))</f>
+        <v>2.3467887323943706</v>
+      </c>
+      <c r="H106">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.6214629549438087E-3</v>
+      </c>
+      <c r="J106" s="1" cm="1">
+        <f t="array" aca="1" ref="J106" ca="1">INDIRECT("A"&amp;(D106+11))-A$11</f>
+        <v>2.055902777777785E-4</v>
+      </c>
+      <c r="K106" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>17.762999999996421</v>
+      </c>
+      <c r="L106">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D106+11)))</f>
+        <v>2.3454213483146105</v>
+      </c>
+      <c r="M106">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.5407887518369421E-4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>2315</v>
       </c>
       <c r="B107">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D107">
+        <v>360</v>
+      </c>
+      <c r="E107" s="1" cm="1">
+        <f t="array" aca="1" ref="E107" ca="1">INDIRECT("A"&amp;(D107+2))-A$2</f>
+        <v>2.0839120370375053E-4</v>
+      </c>
+      <c r="F107" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>18.005000000000354</v>
+      </c>
+      <c r="G107">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D107+1)))</f>
+        <v>2.3463888888888933</v>
+      </c>
+      <c r="H107">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.2216194494665267E-3</v>
+      </c>
+      <c r="J107" s="1" cm="1">
+        <f t="array" aca="1" ref="J107" ca="1">INDIRECT("A"&amp;(D107+11))-A$11</f>
+        <v>2.083912037036395E-4</v>
+      </c>
+      <c r="K107" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>18.004999999990762</v>
+      </c>
+      <c r="L107">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D107+11)))</f>
+        <v>2.3451523545706414</v>
+      </c>
+      <c r="M107">
+        <f t="shared" ca="1" si="6"/>
+        <v>-1.4914868785353974E-5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>2316</v>
       </c>
       <c r="B108">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D108">
+        <v>365</v>
+      </c>
+      <c r="E108" s="1" cm="1">
+        <f t="array" aca="1" ref="E108" ca="1">INDIRECT("A"&amp;(D108+2))-A$2</f>
+        <v>2.1129629629634827E-4</v>
+      </c>
+      <c r="F108" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>18.25600000000075</v>
+      </c>
+      <c r="G108">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D108+1)))</f>
+        <v>2.3458082191780858</v>
+      </c>
+      <c r="H108">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.409497386590246E-4</v>
+      </c>
+      <c r="J108" s="1" cm="1">
+        <f t="array" aca="1" ref="J108" ca="1">INDIRECT("A"&amp;(D108+11))-A$11</f>
+        <v>2.1124999999999616E-4</v>
+      </c>
+      <c r="K108" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>18.251999999995927</v>
+      </c>
+      <c r="L108">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D108+11)))</f>
+        <v>2.3451092896174908</v>
+      </c>
+      <c r="M108">
+        <f t="shared" ca="1" si="6"/>
+        <v>-5.7979821936005038E-5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>2317</v>
       </c>
       <c r="B109">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D109">
+        <v>370</v>
+      </c>
+      <c r="E109" s="1" cm="1">
+        <f t="array" aca="1" ref="E109" ca="1">INDIRECT("A"&amp;(D109+2))-A$2</f>
+        <v>2.1452546296307773E-4</v>
+      </c>
+      <c r="F109" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>18.535000000006118</v>
+      </c>
+      <c r="G109">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D109+1)))</f>
+        <v>2.3455405405405445</v>
+      </c>
+      <c r="H109">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.7327110111773365E-4</v>
+      </c>
+      <c r="J109" s="1" cm="1">
+        <f t="array" aca="1" ref="J109" ca="1">INDIRECT("A"&amp;(D109+11))-A$11</f>
+        <v>2.1442129629622997E-4</v>
+      </c>
+      <c r="K109" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>18.525999999990471</v>
+      </c>
+      <c r="L109">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D109+11)))</f>
+        <v>2.3455256064690073</v>
+      </c>
+      <c r="M109">
+        <f t="shared" ca="1" si="6"/>
+        <v>3.5833702958054658E-4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>2318</v>
       </c>
       <c r="B110">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D110">
+        <v>375</v>
+      </c>
+      <c r="E110" s="1" cm="1">
+        <f t="array" aca="1" ref="E110" ca="1">INDIRECT("A"&amp;(D110+2))-A$2</f>
+        <v>2.1729166666673017E-4</v>
+      </c>
+      <c r="F110" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>18.774000000001639</v>
+      </c>
+      <c r="G110">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D110+1)))</f>
+        <v>2.3454933333333376</v>
+      </c>
+      <c r="H110">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.2606389391087731E-4</v>
+      </c>
+      <c r="J110" s="1" cm="1">
+        <f t="array" aca="1" ref="J110" ca="1">INDIRECT("A"&amp;(D110+11))-A$11</f>
+        <v>2.1726851851844309E-4</v>
+      </c>
+      <c r="K110" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>18.771999999989635</v>
+      </c>
+      <c r="L110">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D110+11)))</f>
+        <v>2.3457180851063875</v>
+      </c>
+      <c r="M110">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.5081566696069117E-4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>2319</v>
       </c>
       <c r="B111">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D111">
+        <v>380</v>
+      </c>
+      <c r="E111" s="1" cm="1">
+        <f t="array" aca="1" ref="E111" ca="1">INDIRECT("A"&amp;(D111+2))-A$2</f>
+        <v>2.2010416666673471E-4</v>
+      </c>
+      <c r="F111" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>19.017000000001982</v>
+      </c>
+      <c r="G111">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D111+1)))</f>
+        <v>2.3458947368421095</v>
+      </c>
+      <c r="H111">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.2746740268270216E-4</v>
+      </c>
+      <c r="J111" s="1" cm="1">
+        <f t="array" aca="1" ref="J111" ca="1">INDIRECT("A"&amp;(D111+11))-A$11</f>
+        <v>2.2018518518518437E-4</v>
+      </c>
+      <c r="K111" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>19.023999999996033</v>
+      </c>
+      <c r="L111">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D111+11)))</f>
+        <v>2.3456692913385875</v>
+      </c>
+      <c r="M111">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.0202189916070949E-4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>2320</v>
       </c>
       <c r="B112">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D112">
+        <v>385</v>
+      </c>
+      <c r="E112" s="1" cm="1">
+        <f t="array" aca="1" ref="E112" ca="1">INDIRECT("A"&amp;(D112+2))-A$2</f>
+        <v>2.2293981481491532E-4</v>
+      </c>
+      <c r="F112" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>19.262000000004733</v>
+      </c>
+      <c r="G112">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D112+1)))</f>
+        <v>2.3460779220779266</v>
+      </c>
+      <c r="H112">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.1065263849987588E-4</v>
+      </c>
+      <c r="J112" s="1" cm="1">
+        <f t="array" aca="1" ref="J112" ca="1">INDIRECT("A"&amp;(D112+11))-A$11</f>
+        <v>2.2299768518518892E-4</v>
+      </c>
+      <c r="K112" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>19.266999999996376</v>
+      </c>
+      <c r="L112">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D112+11)))</f>
+        <v>2.3454663212435287</v>
+      </c>
+      <c r="M112">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.9905180410194632E-4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>2321</v>
       </c>
       <c r="B113">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D113">
+        <v>390</v>
+      </c>
+      <c r="E113" s="1" cm="1">
+        <f t="array" aca="1" ref="E113" ca="1">INDIRECT("A"&amp;(D113+2))-A$2</f>
+        <v>2.2584490740740204E-4</v>
+      </c>
+      <c r="F113" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>19.512999999995536</v>
+      </c>
+      <c r="G113">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D113+1)))</f>
+        <v>2.3460256410256459</v>
+      </c>
+      <c r="H113">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.5837158621915322E-4</v>
+      </c>
+      <c r="J113" s="1" cm="1">
+        <f t="array" aca="1" ref="J113" ca="1">INDIRECT("A"&amp;(D113+11))-A$11</f>
+        <v>2.2589120370364313E-4</v>
+      </c>
+      <c r="K113" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>19.516999999990766</v>
+      </c>
+      <c r="L113">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D113+11)))</f>
+        <v>2.3450639386189311</v>
+      </c>
+      <c r="M113">
+        <f t="shared" ca="1" si="6"/>
+        <v>-1.0333082049562847E-4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>2322</v>
       </c>
       <c r="B114">
         <v>2.31</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D114">
+        <v>395</v>
+      </c>
+      <c r="E114" s="1" cm="1">
+        <f t="array" aca="1" ref="E114" ca="1">INDIRECT("A"&amp;(D114+2))-A$2</f>
+        <v>2.2868055555558264E-4</v>
+      </c>
+      <c r="F114" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>19.75799999999829</v>
+      </c>
+      <c r="G114">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D114+1)))</f>
+        <v>2.3458227848101316</v>
+      </c>
+      <c r="H114">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.5551537070485111E-4</v>
+      </c>
+      <c r="J114" s="1" cm="1">
+        <f t="array" aca="1" ref="J114" ca="1">INDIRECT("A"&amp;(D114+11))-A$11</f>
+        <v>2.286689814814391E-4</v>
+      </c>
+      <c r="K114" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>19.756999999992289</v>
+      </c>
+      <c r="L114">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D114+11)))</f>
+        <v>2.3445202020202065</v>
+      </c>
+      <c r="M114">
+        <f t="shared" ca="1" si="6"/>
+        <v>-6.4706741922027078E-4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>2323</v>
       </c>
       <c r="B115">
         <v>2.31</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D115">
+        <v>400</v>
+      </c>
+      <c r="E115" s="1" cm="1">
+        <f t="array" aca="1" ref="E115" ca="1">INDIRECT("A"&amp;(D115+2))-A$2</f>
+        <v>2.3157407407414787E-4</v>
+      </c>
+      <c r="F115" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>20.008000000002276</v>
+      </c>
+      <c r="G115">
+        <f ca="1">AVERAGE(B$2:INDIRECT("B"&amp;(D115+1)))</f>
+        <v>2.345425000000005</v>
+      </c>
+      <c r="H115">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.5773056057820654E-4</v>
+      </c>
+      <c r="J115" s="1" cm="1">
+        <f t="array" aca="1" ref="J115" ca="1">INDIRECT("A"&amp;(D115+11))-A$11</f>
+        <v>2.3185185185181645E-4</v>
+      </c>
+      <c r="K115" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>20.031999999992834</v>
+      </c>
+      <c r="L115">
+        <f ca="1">AVERAGE(B$11:INDIRECT("B"&amp;(D115+11)))</f>
+        <v>2.3441895261845436</v>
+      </c>
+      <c r="M115">
+        <f t="shared" ca="1" si="6"/>
+        <v>-9.7774325488320102E-4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>2324</v>
       </c>
       <c r="B116">
         <v>2.31</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E116" s="1"/>
+      <c r="F116" s="2"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>2325</v>
       </c>
@@ -49092,7 +54838,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>2326</v>
       </c>
@@ -49100,7 +54846,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>2327</v>
       </c>
@@ -49108,7 +54854,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>2328</v>
       </c>
@@ -49116,23 +54862,27 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>2329</v>
       </c>
       <c r="B121">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F121" s="3"/>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>2330</v>
       </c>
       <c r="B122">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E122">
+        <v>1.1582175925928251E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>2331</v>
       </c>
@@ -49140,7 +54890,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>2332</v>
       </c>
@@ -49148,7 +54898,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>2333</v>
       </c>
@@ -49156,7 +54906,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>2334</v>
       </c>
@@ -49164,7 +54914,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>2335</v>
       </c>
@@ -49172,7 +54922,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>2336</v>
       </c>
